--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2919.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2919.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>1.336682677268982</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.007334232330322</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.519518613815308</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.356553077697754</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.044628024101257</v>
       </c>
     </row>
   </sheetData>
